--- a/01-Excel/3/Activities/10-Ins_QuantilesOutliersBoxplots/Solved/quantiles_outliers_boxplots.xlsx
+++ b/01-Excel/3/Activities/10-Ins_QuantilesOutliersBoxplots/Solved/quantiles_outliers_boxplots.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekaplan/git/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/10-Ins_QuantilesOutliersBoxplots/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Desktop\GA Tech\GitHub\GT-ATL-DATA-PT-09-2020-U-C-2\01-Excel\3\Activities\10-Ins_QuantilesOutliersBoxplots\Solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1DC78D51-958F-084B-876F-912171E10DB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="45880" windowHeight="28340"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="45885" windowHeight="28335"/>
   </bookViews>
   <sheets>
     <sheet name="Quartiles Intro" sheetId="3" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="_xlchart.v1.0" hidden="1">'Boxplot Example'!$D$3:$D$140</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Boxplot Example'!$D$3:$D$140</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1354,7 +1353,7 @@
       <xdr:rowOff>198967</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Chart 1">
@@ -1380,7 +1379,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="2" name="Rectangle 1"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -1436,7 +1435,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="outlier_boxplot_annot.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70AA38D-53F3-3B45-B86C-A8115BE3017B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D70AA38D-53F3-3B45-B86C-A8115BE3017B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,16 +1778,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1824,8 +1821,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1"/>
-    <row r="8" spans="1:11" ht="17" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -1869,16 +1866,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O139"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="17" thickBot="1">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1926,17 +1923,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" s="19">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" s="19">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1955,663 +1952,663 @@
       <c r="N8" s="10"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="20">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="16">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="19">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="19">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="19">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="19">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="22">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="15">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="17">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="4:4">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="4:4">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="4:4">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="4:4">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="4:4">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="4:4">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="4:4">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="4:4">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="4:4">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="4:4">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="4:4">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="4:4">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="4:4">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="4:4">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="4:4">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="4:4">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="4:4">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="4:4">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="4:4">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="136" spans="4:4">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="4:4">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="4:4">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="19">
         <v>97</v>
       </c>
     </row>
-    <row r="139" spans="4:4" ht="17" thickBot="1">
+    <row r="139" spans="4:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="21">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D139">
+  <sortState ref="D3:D139">
     <sortCondition ref="D3:D139"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2622,16 +2619,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O140"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="17" thickBot="1">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2643,7 +2640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2667,7 +2664,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2679,7 +2676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2691,12 +2688,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" s="19">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +2717,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
@@ -2732,657 +2729,657 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="20">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="16">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="20">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="19">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="19">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="19">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="19">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="22">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="15">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="17">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="4:4">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="4:4">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="4:4">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="4:4">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="4:4">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="4:4">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="4:4">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="4:4">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="4:4">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="4:4">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="4:4">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="4:4">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="4:4">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="4:4">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="4:4">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="4:4">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="4:4">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="4:4">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="4:4">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="136" spans="4:4">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="4:4">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="4:4">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="4:4">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="19">
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="4:4" ht="17" thickBot="1">
+    <row r="140" spans="4:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D140" s="21">
         <v>97</v>
       </c>
@@ -3396,16 +3393,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O140"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="17" thickBot="1">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -3417,7 +3414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3441,7 +3438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3465,12 +3462,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" s="19">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
@@ -3494,7 +3491,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
@@ -3506,657 +3503,657 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="20">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="19">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="16">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="20">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="19">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="19">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="19">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="4:4">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="4:4">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="4:4">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="19">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="19">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="19">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="19">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="22">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="19">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="19">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="15">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="19">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="19">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="19">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="17">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="19">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="4:4">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="4:4">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="4:4">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="4:4">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="4:4">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="4:4">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="4:4">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="4:4">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="4:4">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="19">
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="4:4">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="4:4">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="4:4">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="19">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="4:4">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="4:4">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="4:4">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="19">
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="4:4">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="4:4">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="4:4">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="132" spans="4:4">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="4:4">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="19">
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="4:4">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="4:4">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="136" spans="4:4">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="137" spans="4:4">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="4:4">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="19">
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="4:4">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="19">
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="4:4" ht="17" thickBot="1">
+    <row r="140" spans="4:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D140" s="21">
         <v>97</v>
       </c>
